--- a/infopark_jobs_detailed.xlsx
+++ b/infopark_jobs_detailed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,106 +436,96 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Date of Posting</t>
+          <t>JobTitle</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Job Title</t>
+          <t>Location</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Company Name</t>
+          <t>ExperienceRequired</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Last Date to Apply</t>
+          <t>SkillsRequired</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Location</t>
+          <t>Salary</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Experience</t>
+          <t>JobURL</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Salary</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Details URL</t>
+          <t>JobDescriptionSummary</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18-06-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>3. Notice period required to join.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Intbrains Private Limited</t>
+          <t>• Excellent verbal and written communication skills.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>06 Aug 2025</t>
+          <t>• 1 Year of experience in Software, Application or Technical Support.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Experience required: 3–5 years</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Department: Sales &amp; Marketing</t>
+          <t>https://infopark.in/company-jobs/details/17930/70</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/19270/373</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at hr@empressinfotech.com</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>29-07-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2Base Technologies Pvt Ltd</t>
+          <t>similar, DevOps and Agile practices, Code Reviews.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>06 Aug 2025</t>
+          <t>▪ Passion for best design and coding practices and a desire to develop new bold ideas</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -545,39 +535,34 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6. Optimize applications for performance, scalability, and reliability.</t>
+          <t>https://infopark.in/company-jobs/details/19990/103</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/19784/312</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at remi.thomas@experionglobal.com</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>29-07-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2Base Technologies Pvt Ltd</t>
+          <t>• Proficient in Dart and Flutter SDK.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>06 Aug 2025</t>
+          <t>• Good communication and team collaboration abilities.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -587,39 +572,34 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Not Available</t>
+          <t>https://infopark.in/company-jobs/details/19737/4</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/19785/312</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at careers@panasatech.com</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>29-07-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2Base Technologies Pvt Ltd</t>
+          <t>2. 2 - 5 years of experience in B2B sales within the IT services or digital solutions industry.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>06 Aug 2025</t>
+          <t>8. Ability to work independently with minimal supervision and take complete ownership of sales targets.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -629,39 +609,34 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Strong writing, editing, and proofreading skills.</t>
+          <t>https://infopark.in/company-jobs/details/19993/312</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/19786/312</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at careers@2basetechnologies.com</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>29-07-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2Base Technologies Pvt Ltd</t>
+          <t>Strong writing, editing, and proofreading skills.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>06 Aug 2025</t>
+          <t>Basic understanding of SEO principles and content optimization techniques.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -671,39 +646,34 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2. 2 - 5 years of experience in B2B sales within the IT services or digital solutions industry.</t>
+          <t>https://infopark.in/company-jobs/details/19994/312</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/19787/312</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at careers@2basetechnologies.com</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>29-07-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2Base Technologies Pvt Ltd</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>06 Aug 2025</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -713,81 +683,71 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Strong understanding of machine learning algorithms, deep learning frameworks, and statistical methods.</t>
+          <t>https://infopark.in/company-jobs/details/19995/312</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/19788/312</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at careers@2basetechnologies.com</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>28-05-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>AVENTUS INFORMATICS</t>
+          <t>6. Optimize applications for performance, scalability, and reliability.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>06 Aug 2025</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Not Available</t>
+          <t>2. Exposure to AI/ML integrations within modern web applications.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>- Expertise in Adobe Creative Suite (Photoshop, Illustrator, InDesign); knowledge of Figma, After Effects, or other motion/UX tools is a plus.</t>
+          <t>https://infopark.in/company-jobs/details/19996/312</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/19023/148</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at careers@2basetechnologies.com</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>08-04-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Policy4us Insurance Web Aggregator Pvt Ltd</t>
+          <t>Strong understanding of machine learning algorithms, deep learning frameworks, and statistical methods.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>06 Aug 2025</t>
+          <t>Excellent communication and collaboration skills.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -797,39 +757,34 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>c)	Some hands-on experience or understanding of project management approaches like Agile, Scrum, or Kanban.</t>
+          <t>https://infopark.in/company-jobs/details/19997/312</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>b) Opportunities for professional growth and development.</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/18512/346</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at careers@2basetechnologies.com</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>29-07-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Policy4us Insurance Web Aggregator Pvt Ltd</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>06 Aug 2025</t>
+          <t>2. Collaborate with clients, project managers, and creative teams to understand their objectives, target audience, and requirements</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -839,39 +794,34 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Not Available</t>
+          <t>https://infopark.in/company-jobs/details/20007/390</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>f)  Coordinate with internal departments and external vendors for documentation and follow-ups.</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/19810/346</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at aswathy@orestestech.com</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>09-05-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Policy4us Insurance Web Aggregator Pvt Ltd</t>
+          <t>We are looking for a highly skilled computer programmer who is comfortable with both front and back-end programming. Full stack developers are responsible for developing and designing front-end web architecture, ensuring the responsiveness of applications, and working alongside graphic designers for web design features, among other duties.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>06 Aug 2025</t>
+          <t>Full Stack Developer Responsibilities:</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -881,39 +831,34 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>b)  Strong proficiency in JavaScript (ES6+), Node.js, and React.js.</t>
+          <t>https://infopark.in/company-jobs/details/18246/124</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>b)  Opportunities for professional growth and development.</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/18791/346</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at hiring@airoglobalsoftware.com</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>24-02-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Experience required: 3–5 years</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Airo Global Software Pvt Ltd</t>
+          <t>Department: Sales &amp; Marketing</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>06 Aug 2025</t>
+          <t>•	Hands-on experience with CRM and lead generation tools (e.g., LinkedIn Sales Navigator, Hunter, Apollo, etc.)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -923,39 +868,34 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>We are looking for a highly skilled computer programmer who is comfortable with both front and back-end programming. Full stack developers are responsible for developing and designing front-end web architecture, ensuring the responsiveness of applications, and working alongside graphic designers for web design features, among other duties.</t>
+          <t>https://infopark.in/company-jobs/details/19270/373</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/18024/124</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at jovan.abraham@intbrains.com</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12-07-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Policy4us Insurance Web Aggregator Pvt Ltd</t>
+          <t>•	Design and animate title sequences, lower-thirds, transitions, and infographics.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>06 Aug 2025</t>
+          <t>•	Proficiency in Design &amp; Animation Software: Adobe Creative Suite (Photoshop, Illustrator, After Effects,</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -965,39 +905,34 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Not Available</t>
+          <t>https://infopark.in/company-jobs/details/19795/421</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>b) Opportunities for professional growth and development.</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/19570/346</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at talenthunt@globalsurf.ae</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>31-07-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Zapare Technologies Private Limited</t>
+          <t>•	Proficiency in UI/UX design tools such as Figma, Adobe XD</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>06 Aug 2025</t>
+          <t>•	Strong communication and presentation skills to articulate design concepts effectively.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1007,39 +942,34 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>- Prior experience in the IT/ITeS industry is highly preferred.</t>
+          <t>https://infopark.in/company-jobs/details/19796/421</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/19832/137</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at talenthunt@globalsurf.ae</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>03-08-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>4. Current remuneration and salary expectations.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Thoughtminds System Pvt Ltd</t>
+          <t>• Extensive experience with PostgreSQL, Redis, and other modern database systems.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>06 Aug 2025</t>
+          <t>• Ability to work collaboratively in an Agile team environment.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1049,39 +979,34 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ThoughtMinds is a global leader in providing solutions on LLM and generative AI solutions. We specialize in connecting top-tier technology professionals with global enterprises for high-impact digital transformation initiatives.</t>
+          <t>https://infopark.in/company-jobs/details/19571/70</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/19861/485</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at hr@empressinfotech.com</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>05-08-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Tranzmeo</t>
+          <t>ThoughtMinds is a global leader in providing solutions on LLM and generative AI solutions. We specialize in connecting top-tier technology professionals with global enterprises for high-impact digital transformation initiatives.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>06 Aug 2025</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1091,39 +1016,34 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Make recommendations to resolve application performance problems</t>
+          <t>https://infopark.in/company-jobs/details/19861/485</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/19881/157</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at anchana@thoughtminds.io</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>05-08-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Tranzmeo</t>
+          <t>•	Implement clean, modern, smooth animations and transitions that provide an excellent user experience.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>06 Aug 2025</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1133,39 +1053,34 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Not Available</t>
+          <t>https://infopark.in/company-jobs/details/18136/373</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/19882/157</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at jovan.abraham@intbrains.com</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>05-08-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Tranzmeo</t>
+          <t>Make recommendations to resolve application performance problems</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>06 Aug 2025</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1175,39 +1090,34 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Not Available</t>
+          <t>https://infopark.in/company-jobs/details/19976/157</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/19883/157</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at lakshmi@team.tranzmeo.com</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>05-08-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Tranzmeo</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>06 Aug 2025</t>
+          <t>Bachelor's degree in Computer Science, Information Systems, Engineering, or a related field. PMP/PRINCE2 certification is a plus.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1217,39 +1127,34 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Key Responsibilities</t>
+          <t>https://infopark.in/company-jobs/details/19978/157</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/19884/157</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at lakshmi@team.tranzmeo.com</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>16-07-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Thoughtminds System Pvt Ltd</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>06 Aug 2025</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1259,39 +1164,34 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Not Available</t>
+          <t>https://infopark.in/company-jobs/details/19979/157</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/19629/485</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at lakshmi@team.tranzmeo.com</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>05-08-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Tranzmeo</t>
+          <t>Key Responsibilities</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>06 Aug 2025</t>
+          <t>Key Responsibilities</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1301,39 +1201,34 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>• Minimum 7-10 years of relevant work experience in the IT industry.</t>
+          <t>https://infopark.in/company-jobs/details/19980/157</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>• Ensure HR procedures comply with labor laws and regulations.</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/19885/157</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at lakshmi@team.tranzmeo.com</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>06-08-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Orestes Technologies Pvt Ltd</t>
+          <t>Qualifications: #Engineering #MBA (optional)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>06 Aug 2025</t>
+          <t>* Must have good presentation skills</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1343,39 +1238,34 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>•	Opportunity for a full-time position based on performance</t>
+          <t>https://infopark.in/company-jobs/details/19981/157</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/19904/390</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at lakshmi@team.tranzmeo.com</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>10-02-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Policy4us Insurance Web Aggregator Pvt Ltd</t>
+          <t>Proven leadership and team management skills</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>06 Aug 2025</t>
+          <t>✓ Strong programming skills (Python) ✓ Experience with cloud platforms (AWS, GCP, Azure) ✓ Hands-on experience with ML frameworks (TensorFlow, PyTorch, scikit-learn)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1385,81 +1275,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>c) Proficiency in Adobe Creative Suite, particularly Photoshop, Illustrator, and InDesign.</t>
+          <t>https://infopark.in/company-jobs/details/19982/157</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>b) Opportunities for professional growth and development.</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/17857/346</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at hr@tranzmeo.com</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>10-02-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Policy4us Insurance Web Aggregator Pvt Ltd</t>
+          <t>• Minimum 7-10 years of relevant work experience in the IT industry.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>06 Aug 2025</t>
+          <t>• Excellent organizational skills and attention to detail</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Not Available</t>
+          <t>• Ensure HR procedures comply with labor laws and regulations.</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>b) Excellent communication and interpersonal skills (both written and verbal).</t>
+          <t>https://infopark.in/company-jobs/details/19983/157</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>b) Opportunities for career growth and development in the insurance industry.</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/17859/346</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at hr@tranzmeo.com</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>06-03-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Apply with subject line : Application for Full Stack Trainee [For Trainee]</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Intbrains Private Limited</t>
+          <t>Apply with subject line : Application for Full Stack Trainee [For Trainee]</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>06 Aug 2025</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1469,39 +1349,34 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>•	Implement clean, modern, smooth animations and transitions that provide an excellent user experience.</t>
+          <t>https://infopark.in/company-jobs/details/17938/410</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/18136/373</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at archa.r@valoriz.com</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>21-07-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Experience: 2-5 years</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Thoughtminds System Pvt Ltd</t>
+          <t>Employment Type: Full-Time</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>06 Aug 2025</t>
+          <t>Experience in IT Services Sales (software solutions, cloud services, cybersecurity, etc.).</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1511,39 +1386,34 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Not Available</t>
+          <t>https://infopark.in/company-jobs/details/20004/296</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/19672/485</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at hr@grapelime.in</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>19-02-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Work Days: Monday to Friday (5-day work week)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Telious Technologies Pvt Ltd</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>07 Aug 2025</t>
+          <t>Creative mindset and strong problem-solving abilities</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1553,39 +1423,34 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>•Knowledge of Core Java, JavaScript, JSF,PL/SQL, Spring Boot, Spring, Hibernate.</t>
+          <t>https://infopark.in/company-jobs/details/20005/296</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>• Preferring candidates from Kerala</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/17966/471</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at hr@grapelime.in</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>19-03-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>If interested, drop your resume here careers@grapelime.in</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Thinkpalm Technologies Pvt.Ltd</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>07 Aug 2025</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1595,81 +1460,71 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>•	4+ years of experience in product design or User Experience (UX).</t>
+          <t>https://infopark.in/company-jobs/details/20006/296</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/18298/49</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at careers@grapelime.in</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>07-02-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Airo Global Software Pvt Ltd</t>
+          <t>•Knowledge of Core Java, JavaScript, JSF,PL/SQL, Spring Boot, Spring, Hibernate.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>07 Aug 2025</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Not Available</t>
+          <t>• Preferring candidates from Kerala</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>We are looking for a highly skilled computer programmer who is comfortable with both front and back-end programming. Full stack developers are responsible for developing and designing front-end web architecture, ensuring the responsiveness of applications, and working alongside graphic designers for web design features, among other duties.</t>
+          <t>https://infopark.in/company-jobs/details/17966/471</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/17822/124</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at jobs@telious.com</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>05-08-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Telious Technologies Pvt Ltd</t>
+          <t>Proficient in CSS, HTML, and writing cross-browser compatible code.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>07 Aug 2025</t>
+          <t>Proven experienc</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1679,39 +1534,34 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>•Strong understanding of SEO, Google Ads, Meta (Facebook) Ads, Email Marketing, Content Marketing, Social Media Strategy, and Canva.</t>
+          <t>https://infopark.in/company-jobs/details/16690/260</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>•Preferring candidates from Kerala</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/19898/471</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at CAREERS@BEINEX.COM</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>06-08-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Global Surf IT Pvt Ltd</t>
+          <t>Excellent communication and interpersonal skills</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>07 Aug 2025</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1721,165 +1571,145 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>phone, mail or ticketing tools in a professional and timely manner while demonstrating the</t>
+          <t>https://infopark.in/company-jobs/details/16694/260</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/19907/421</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at CAREERS@BEINEX.COM</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>06-08-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Experience: 5+ years</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Grapelime Innovations Private Limited.</t>
+          <t>•	Experience working in an IT product-based or service-based company.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>07 Aug 2025</t>
+          <t>•	A minimum of 5+ years of experience in international sales, with a proven ability to manage and grow sales in global markets.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Experience: 2-5 years</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Employment Type: Full-Time</t>
+          <t>https://infopark.in/company-jobs/details/19513/164</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/19910/296</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at careers@worksent.com</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>06-08-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Grapelime Innovations Private Limited.</t>
+          <t>Implementing and managing project budgets, ensuring financial control and reporting</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>07 Aug 2025</t>
+          <t>Excellent communication skills</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Work Days: Monday to Friday (5-day work week)</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Not Available</t>
+          <t>https://infopark.in/company-jobs/details/17982/260</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/19911/296</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at careers@beinex.com</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>23-07-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NewAgeSys Solutions (P) Ltd.</t>
+          <t>We are looking for a highly skilled computer programmer who is comfortable with both front and back-end programming. Full stack developers are responsible for developing and designing front-end web architecture, ensuring the responsiveness of applications, and working alongside graphic designers for web design features, among other duties.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>08 Aug 2025</t>
+          <t>Full Stack Developer Responsibilities:</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Shift: 5 PM – 2 AM IST</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Job Title: Sales Outreach Expert – US Market</t>
+          <t>https://infopark.in/company-jobs/details/18024/124</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/19726/109</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at hiring@airoglobalsoftware.com</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>05-07-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Only female candidates with relevant experience will be considered</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>GALTech Technologies Pvt Ltd</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>08 Aug 2025</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1889,39 +1719,34 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2.Experience working with WordPress, and comfort customizing and extending it as needed.</t>
+          <t>https://infopark.in/company-jobs/details/17026/410</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/19497/189</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at careers@valoriz.com</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>28-07-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Experience: 3+ Years</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SE-Mentor Solutions</t>
+          <t>Strong development experience in Python Django frameworks.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>08 Aug 2025</t>
+          <t>Excellent team player, with emphasis on priorities and goal setting</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1931,39 +1756,34 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>* Experience in MDM with Databricks or Reltio MDM</t>
+          <t>https://infopark.in/company-jobs/details/16798/260</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/19761/483</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at CAREERS@BEINEX.COM</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>31-08-2024</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Experience - 2 to 5 years</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Beinex Consulting Pvt Ltd</t>
+          <t>Background in project management and research</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>08 Aug 2025</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1973,81 +1793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Proficient in CSS, HTML, and writing cross-browser compatible code.</t>
+          <t>https://infopark.in/company-jobs/details/16799/260</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/16690/260</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at CAREERS@BEINEX.COM</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>28-07-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Art Technology and Software.</t>
+          <t>•Strong understanding of SEO, Google Ads, Meta (Facebook) Ads, Email Marketing, Content Marketing, Social Media Strategy, and Canva.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>08 Aug 2025</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>• Produce high quality support documentation and diagrams on collaborative</t>
+          <t>•Preferring candidates from Kerala</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Essential</t>
+          <t>https://infopark.in/company-jobs/details/19898/471</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/19765/4</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at jobs@telious.com</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>31-08-2024</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Beinex Consulting Pvt Ltd</t>
+          <t>•	Self-motivated, with excellent time management and organizational skills.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>08 Aug 2025</t>
+          <t>•	Basic understanding of programming concepts (e.g., familiarity with languages like React, Fluter, Python, Java, JavaScript ) is a plus.</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2057,81 +1867,71 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Excellent communication and interpersonal skills</t>
+          <t>https://infopark.in/company-jobs/details/19906/164</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/16694/260</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at careers@worksent.com</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>07-07-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Experience: 2+ Years</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Art Technology and Software.</t>
+          <t>Proficient in Data Structures &amp; Algorithms (DSA) and solving complex problems efficiently.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>08 Aug 2025</t>
+          <t>In-depth knowledge of RESTful APIs with seamless integration of third-party libraries and custom packages.</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Department: Sales</t>
+          <t>Strong foundation in mobile app security, cross-platform development , testing strategies, and CI/CD pipeline implementation.</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>record in the IT industry. The ideal candidate will have a minimum of 7 years of experience,</t>
+          <t>https://infopark.in/company-jobs/details/16072/260</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/19510/4</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at CAREERS@BEINEX.COM</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>28-07-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Experience - 3+ years</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Empay Software Solutions Private Limited</t>
+          <t>Background in project management and research</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>08 Aug 2025</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2141,165 +1941,145 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Location: Infopark Kochi | Work Mode: On-site (Mandatory)</t>
+          <t>https://infopark.in/company-jobs/details/15859/260</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/19766/251</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at careers@beinex.com</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>28-07-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Empay Software Solutions Private Limited</t>
+          <t>Skillsets: Vulnerability Assessment, API, Code, Web &amp; Cloud Security</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>08 Aug 2025</t>
+          <t>Remuneration: Salary ranges will be the best in the industry.</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Not Available</t>
+          <t>Shift Time: Consultant / Part Time Freelancer</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>We are hiring an experienced Java Team Lead with a strong technical background and leadership capabilities. The successful candidate will oversee the design, development, and deployment of Java-based applications and provide mentorship to a growing development team.</t>
+          <t>https://infopark.in/company-jobs/details/19444/55</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/19767/251</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at careers@jtsiindia.com</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>28-07-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Mode: Work from Office</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Empay Software Solutions Private Limited</t>
+          <t> Familiarity with MS Power point, Outlook, MS word and Excel.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>08 Aug 2025</t>
+          <t> Take Ownership of the assigned tasks.</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Not Available</t>
+          <t>if performance is good.</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Location: Infopark Kochi | Work Mode: On-site (Mandatory)</t>
+          <t>https://infopark.in/company-jobs/details/19960/4</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/19768/251</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at aswathi.asok@arttechgroup.com</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>07-07-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Mode: Work from Office</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>WORKSENT TECHNOLOGIES PVT LTD</t>
+          <t> Familiarity with MS Power point, Outlook, MS word and Excel.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>08 Aug 2025</t>
+          <t> Take Ownership of the assigned tasks.</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Experience: 5+ years</t>
+          <t>if performance is good.</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>•	Experience working in an IT product-based or service-based company.</t>
+          <t>https://infopark.in/company-jobs/details/19472/4</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/19513/164</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at jamshiya@arttechgroup.com</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>28-07-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Empay Software Solutions Private Limited</t>
+          <t>We are hiring .NET / .NET Core Full Stack Developers to join our dynamic team at Infopark Thrissur. You will be responsible for developing, supporting, and maintaining critical applications. The ideal candidate is passionate about technology, detail-oriented, and committed to delivering high-quality software solutions.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>08 Aug 2025</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2309,81 +2089,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Location: Kochi | Work Mode: On-site (Mandatory)</t>
+          <t>https://infopark.in/company-jobs/details/20000/41</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/19769/251</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at career@lucidplus.com</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>07-07-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>GALTech Technologies Pvt Ltd</t>
+          <t>2. Strong interest in technology and software solutions.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>08 Aug 2025</t>
+          <t>4. Strong negotiation and closing abilities.</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Not Available</t>
+          <t>2. Opportunity to work with a growing SaaS company and build your B2B sales career.</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2. Strong understanding of HTML, CSS, JavaScript and Wordpress.</t>
+          <t>https://infopark.in/company-jobs/details/20001/41</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/19516/189</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at career@lucidplus.com</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>19-02-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Beinex Consulting Pvt Ltd</t>
+          <t>Greetings from JTSi Technologies India Pvt Ltd!</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>08 Aug 2025</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2393,81 +2163,71 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Implementing and managing project budgets, ensuring financial control and reporting</t>
+          <t>https://infopark.in/company-jobs/details/19264/55</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/17982/260</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at careers@jtsiindia.com</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>29-07-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>MapleTech Space Pvt Ltd</t>
+          <t>Greetings from JTSi Technologies...!!!</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>08 Aug 2025</t>
+          <t>Remuneration: Salary ranges will be the best in the industry.</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Job Location – InfoPark Koratty, Thrissur</t>
+          <t>Shift Time: 06.30 PM – 03.30 AM IST</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>MBA or relevant Post Graduation will be an added advantage.</t>
+          <t>https://infopark.in/company-jobs/details/19266/55</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/19790/292</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at careers@jtsiindia.com</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>29-07-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Tamcherry Technologies Private Limited</t>
+          <t>Department: AI &amp; Data Science</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>08 Aug 2025</t>
+          <t>•	4–7 years of experience in Python programming, with a focus on AI/ML systems.</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2477,39 +2237,34 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>DevOps.</t>
+          <t>https://infopark.in/company-jobs/details/19585/401</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/19791/391</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at joinus@pearlsofttechnologies.com</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>29-07-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Global Surf IT Pvt Ltd</t>
+          <t>Familiarity with Microsoft Identity Web and OAuth2.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>08 Aug 2025</t>
+          <t>Ability to work collaboratively in a team environment.</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2519,39 +2274,34 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>•	Design and animate title sequences, lower-thirds, transitions, and infographics.</t>
+          <t>https://infopark.in/company-jobs/details/19587/68</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/19795/421</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at careers@cubettech.com</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>29-07-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Global Surf IT Pvt Ltd</t>
+          <t>Relevant Experience - 3+ years</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>08 Aug 2025</t>
+          <t>CMS, SaaS</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2561,39 +2311,34 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>•	Proficiency in UI/UX design tools such as Figma, Adobe XD</t>
+          <t>https://infopark.in/company-jobs/details/19593/103</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/19796/421</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at sandra.paul@experionglobal.com</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>01-02-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>GALTech Technologies Pvt Ltd</t>
+          <t>3-5 years</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>08 Aug 2025</t>
+          <t>3-5 years of experience in software testing.</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2603,39 +2348,34 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>3. NLP Frameworks: Familiarity with tools like NLTK, SpaCy, or Hugging Face Transformers.</t>
+          <t>https://infopark.in/company-jobs/details/18858/190</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/17749/189</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at sharika.raj@innovaturelabs.com</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>29-07-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2Hats Logic Solutions Pvt. Ltd.</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>08 Aug 2025</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2645,39 +2385,34 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Strong understanding of key design principles and responsive design concepts.</t>
+          <t>https://infopark.in/company-jobs/details/19899/49</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/19797/182</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at r.reshma@thinkpalm.com</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>29-07-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>GALTech Technologies Pvt Ltd</t>
+          <t>Place of Posting         	: Infopark, Kochi / Remote.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>08 Aug 2025</t>
+          <t>Experience                  	: Minimum 7 to 10 Years</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2687,39 +2422,34 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Basic camera and audio gear familiarity.</t>
+          <t>https://infopark.in/company-jobs/details/19133/55</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Exposure to real-world projects alongside trained professionals.</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/19798/189</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at careers@jtsiindia.com</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>21-09-2022</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Voxtron Solutions LLP</t>
+          <t>Knowledge Harvesting Specialist required for JTSi Technologies India Pvt Ltd Infopark, Kochi.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>08 Aug 2025</t>
+          <t>Job Time	: 09.30 AM – 06.30 PM IST (Monday – Friday)</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2729,165 +2459,145 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Participate in code reviews to ensure code quality and adherence to best practices.</t>
+          <t>https://infopark.in/company-jobs/details/19680/55</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/11359/336</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at careers@jtsiindia.com</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>21-09-2022</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Voxtron Solutions LLP</t>
+          <t>Strong frontend development skills using AngularJS (9).</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>08 Aug 2025</t>
+          <t>Experience with third-party API integrations, especially payment gateways (e.g., Razorpay, Stripe, PayPal).</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Not Available</t>
+          <t>Collaborate with the DevOps and QA teams to support CI/CD and automated testing pipelines.</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Functional Knowledge in ERP / CRM Modules</t>
+          <t>https://infopark.in/company-jobs/details/19227/209</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/11360/336</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at dona.mariam@ndimensionz.com</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>12-07-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>•	Support internal and external audits by preparing reports and documentation.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Empress InfoTech</t>
+          <t>•	IATA BSP Expertise: Strong knowledge of BSP processes, ticketing, and airline reconciliation.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>08 Aug 2025</t>
+          <t>•	Analytical Ability: Strong numerical, analytical, and problem-solving skills.</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4. Current remuneration and salary expectations.</t>
+          <t>•	Verify BSP billing reports and resolve discrepancies with airlines and IATA.</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>• Extensive experience with PostgreSQL, Redis, and other modern database systems.</t>
+          <t>https://infopark.in/company-jobs/details/17736/265</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/19571/70</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at ta@verteil.com</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>31-07-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Art Technology and Software.</t>
+          <t>Proficient in tools like LinkedIn Sales Navigator, HubSpot/Salesforce, and Excel</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>08 Aug 2025</t>
+          <t>Self-motivated, detail-oriented, and goal-driven</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>arrangement in accordance with our company policy. However, we also believe in the</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>browsers.</t>
+          <t>https://infopark.in/company-jobs/details/19017/336</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/19833/4</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at lavanya@voxtronme.com</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>19-03-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Thinkpalm Technologies Pvt.Ltd</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>08 Aug 2025</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2897,81 +2607,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>• Strong communication, persuasion, and networking skills.</t>
+          <t>https://infopark.in/company-jobs/details/19540/250</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/18300/49</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at careers@digiora.com</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>01-08-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Techversant Infotech Pvt Ltd</t>
+          <t>•	1-4 years of progressive accounting experience is preferred (experience in real estate, hospitality or food &amp; beverage clients will be helpful but not mandatory).</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>08 Aug 2025</t>
+          <t>•	Ability to apply advanced problem-solving skills to resolve complex issues and the capability to work with time-bound environments.</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Not Available</t>
+          <t>•	Apply and uphold internal accounting policies and control procedures.</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>o Proven experience with supervised, unsupervised, and reinforcement learning.</t>
+          <t>https://infopark.in/company-jobs/details/19558/216</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/19842/85</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at india.hr@redux.co</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>01-08-2025</t>
+          <t>Job Opportunities</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
+          <t>Company: TechTaliya Informatics Pvt. Ltd.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Techversant Infotech Pvt Ltd</t>
+          <t>You will work on real-world problems, assist in developing and deploying AI/ML models, and support the creation of intelligent solutions across various business domains. This role is ideal for someone eager to grow in a fast-paced environment focused on next-generation technologies.</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>08 Aug 2025</t>
+          <t>•	Bachelor’s degree in Engineering (preferably BTech in AI/ML, IT, or related field) with a focus on Data Science, Analytics, or Statistics.</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2981,17 +2681,12 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>•2+ years of experience as a Solution Architect, with demonstrated success in leading and delivering enterprise-level projects.</t>
+          <t>https://infopark.in/company-jobs/details/19820/282</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>https://infopark.in/company-jobs/details/19843/85</t>
+          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at hr@techtaliya.com</t>
         </is>
       </c>
     </row>

--- a/infopark_jobs_detailed.xlsx
+++ b/infopark_jobs_detailed.xlsx
@@ -473,199 +473,155 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>3. Notice period required to join.</t>
-        </is>
-      </c>
+          <t>Business Development Manager (8+ Years)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>• Excellent verbal and written communication skills.</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>• 1 Year of experience in Software, Application or Technical Support.</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Not Available</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/17930/70</t>
+          <t>https://infopark.in/company-jobs/details/20016/485</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at hr@empressinfotech.com</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Application Support Analyst</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>similar, DevOps and Agile practices, Code Reviews.</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>▪ Passion for best design and coding practices and a desire to develop new bold ideas</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Not Available</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/19990/103</t>
+          <t>https://infopark.in/company-jobs/details/19765/4</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at remi.thomas@experionglobal.com</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Sales Manager IT Industry</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>• Proficient in Dart and Flutter SDK.</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>• Good communication and team collaboration abilities.</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Not Available</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/19737/4</t>
+          <t>https://infopark.in/company-jobs/details/19510/4</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at careers@panasatech.com</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Data Science Intern</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2. 2 - 5 years of experience in B2B sales within the IT services or digital solutions industry.</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8. Ability to work independently with minimal supervision and take complete ownership of sales targets.</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Not Available</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/19993/312</t>
+          <t>https://infopark.in/company-jobs/details/20035/157</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at careers@2basetechnologies.com</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Project Manager (Data &amp; Analytics)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Strong writing, editing, and proofreading skills.</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Basic understanding of SEO principles and content optimization techniques.</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Not Available</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/19994/312</t>
+          <t>https://infopark.in/company-jobs/details/20036/157</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at careers@2basetechnologies.com</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Junior Geophysicist- Fiber-optic Sensing &amp; AI (Fresher)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>Not Available</t>
@@ -676,36 +632,28 @@
           <t>Not Available</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/19995/312</t>
+          <t>https://infopark.in/company-jobs/details/20037/157</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at careers@2basetechnologies.com</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Experienced  PHP codeginiter developer</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>6. Optimize applications for performance, scalability, and reliability.</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -713,70 +661,54 @@
           <t>Not Available</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2. Exposure to AI/ML integrations within modern web applications.</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/19996/312</t>
+          <t>https://infopark.in/company-jobs/details/18246/124</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at careers@2basetechnologies.com</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>React + Node Developer Intern</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Strong understanding of machine learning algorithms, deep learning frameworks, and statistical methods.</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Excellent communication and collaboration skills.</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Not Available</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/19997/312</t>
+          <t>https://infopark.in/company-jobs/details/20038/157</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at careers@2basetechnologies.com</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Junior Business Development Executive - B2B Sales</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>Not Available</t>
@@ -784,125 +716,97 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2. Collaborate with clients, project managers, and creative teams to understand their objectives, target audience, and requirements</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Not Available</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/20007/390</t>
+          <t>https://infopark.in/company-jobs/details/20039/157</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at aswathy@orestestech.com</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Technical Lead- Data Science &amp; Machine Learning</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>We are looking for a highly skilled computer programmer who is comfortable with both front and back-end programming. Full stack developers are responsible for developing and designing front-end web architecture, ensuring the responsiveness of applications, and working alongside graphic designers for web design features, among other duties.</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Full Stack Developer Responsibilities:</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Not Available</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/18246/124</t>
+          <t>https://infopark.in/company-jobs/details/20040/157</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at hiring@airoglobalsoftware.com</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Experience required: 3–5 years</t>
-        </is>
-      </c>
+          <t>HR &amp; Admin (7-10 years)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Department: Sales &amp; Marketing</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>•	Hands-on experience with CRM and lead generation tools (e.g., LinkedIn Sales Navigator, Hunter, Apollo, etc.)</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Not Available</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/19270/373</t>
+          <t>https://infopark.in/company-jobs/details/20041/157</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at jovan.abraham@intbrains.com</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Motion Graphic Designer</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>•	Design and animate title sequences, lower-thirds, transitions, and infographics.</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>•	Proficiency in Design &amp; Animation Software: Adobe Creative Suite (Photoshop, Illustrator, After Effects,</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Not Available</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>https://infopark.in/company-jobs/details/19795/421</t>
@@ -910,36 +814,28 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at talenthunt@globalsurf.ae</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>UI/UX Designer</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>•	Proficiency in UI/UX design tools such as Figma, Adobe XD</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>•	Strong communication and presentation skills to articulate design concepts effectively.</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Not Available</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>https://infopark.in/company-jobs/details/19796/421</t>
@@ -947,61 +843,49 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at talenthunt@globalsurf.ae</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>4. Current remuneration and salary expectations.</t>
-        </is>
-      </c>
+          <t>HR Generalist |  Sr HR Executive</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>• Extensive experience with PostgreSQL, Redis, and other modern database systems.</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>• Ability to work collaboratively in an Agile team environment.</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Not Available</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/19571/70</t>
+          <t>https://infopark.in/company-jobs/details/19832/137</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at hr@empressinfotech.com</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Service Monitoring Analyst</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ThoughtMinds is a global leader in providing solutions on LLM and generative AI solutions. We specialize in connecting top-tier technology professionals with global enterprises for high-impact digital transformation initiatives.</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1009,36 +893,28 @@
           <t>Not Available</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/19861/485</t>
+          <t>https://infopark.in/company-jobs/details/19833/4</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at anchana@thoughtminds.io</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Sales Executive (Junior Role)</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>•	Implement clean, modern, smooth animations and transitions that provide an excellent user experience.</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1046,36 +922,28 @@
           <t>Not Available</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/18136/373</t>
+          <t>https://infopark.in/company-jobs/details/18823/385</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at jovan.abraham@intbrains.com</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>UI/UX Designer</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Make recommendations to resolve application performance problems</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1083,33 +951,25 @@
           <t>Not Available</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/19976/157</t>
+          <t>https://infopark.in/company-jobs/details/19597/385</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at lakshmi@team.tranzmeo.com</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Digital Marketing Manager (6+yrs exp)</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>Not Available</t>
@@ -1117,36 +977,28 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Bachelor's degree in Computer Science, Information Systems, Engineering, or a related field. PMP/PRINCE2 certification is a plus.</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Not Available</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/19978/157</t>
+          <t>https://infopark.in/company-jobs/details/19861/485</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at lakshmi@team.tranzmeo.com</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Web QA Tester</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>Not Available</t>
@@ -1157,184 +1009,144 @@
           <t>Not Available</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/19979/157</t>
+          <t>https://infopark.in/company-jobs/details/19894/421</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at lakshmi@team.tranzmeo.com</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Front-End Developer – React.js</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Key Responsibilities</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Key Responsibilities</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Not Available</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/19980/157</t>
+          <t>https://infopark.in/company-jobs/details/19663/385</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at lakshmi@team.tranzmeo.com</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Back-End Developer – Node.js</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Qualifications: #Engineering #MBA (optional)</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>* Must have good presentation skills</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Not Available</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/19981/157</t>
+          <t>https://infopark.in/company-jobs/details/19664/385</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at lakshmi@team.tranzmeo.com</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Video Editor</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Proven leadership and team management skills</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>✓ Strong programming skills (Python) ✓ Experience with cloud platforms (AWS, GCP, Azure) ✓ Hands-on experience with ML frameworks (TensorFlow, PyTorch, scikit-learn)</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Not Available</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/19982/157</t>
+          <t>https://infopark.in/company-jobs/details/19925/385</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at hr@tranzmeo.com</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Graphic Designer</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>• Minimum 7-10 years of relevant work experience in the IT industry.</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>• Excellent organizational skills and attention to detail</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>• Ensure HR procedures comply with labor laws and regulations.</t>
-        </is>
-      </c>
+          <t>Not Available</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/19983/157</t>
+          <t>https://infopark.in/company-jobs/details/19926/385</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at hr@tranzmeo.com</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Apply with subject line : Application for Full Stack Trainee [For Trainee]</t>
-        </is>
-      </c>
+          <t>Magento Developer</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Apply with subject line : Application for Full Stack Trainee [For Trainee]</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1342,70 +1154,54 @@
           <t>Not Available</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/17938/410</t>
+          <t>https://infopark.in/company-jobs/details/19937/385</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at archa.r@valoriz.com</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Experience: 2-5 years</t>
-        </is>
-      </c>
+          <t>Shopify Developer</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Employment Type: Full-Time</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Experience in IT Services Sales (software solutions, cloud services, cybersecurity, etc.).</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Not Available</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/20004/296</t>
+          <t>https://infopark.in/company-jobs/details/19938/385</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at hr@grapelime.in</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Work Days: Monday to Friday (5-day work week)</t>
-        </is>
-      </c>
+          <t>Digital Marketing Executive</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>Not Available</t>
@@ -1413,36 +1209,28 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Creative mindset and strong problem-solving abilities</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Not Available</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/20005/296</t>
+          <t>https://infopark.in/company-jobs/details/19692/385</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at hr@grapelime.in</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>If interested, drop your resume here careers@grapelime.in</t>
-        </is>
-      </c>
+          <t>SEO Analyst</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>Not Available</t>
@@ -1453,36 +1241,28 @@
           <t>Not Available</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/20006/296</t>
+          <t>https://infopark.in/company-jobs/details/19695/385</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at careers@grapelime.in</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Content Writer</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
-          <t>•Knowledge of Core Java, JavaScript, JSF,PL/SQL, Spring Boot, Spring, Hibernate.</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1490,73 +1270,57 @@
           <t>Not Available</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>• Preferring candidates from Kerala</t>
-        </is>
-      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/17966/471</t>
+          <t>https://infopark.in/company-jobs/details/19696/385</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at jobs@telious.com</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Sales Executive</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Proficient in CSS, HTML, and writing cross-browser compatible code.</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Proven experienc</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Not Available</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/16690/260</t>
+          <t>https://infopark.in/company-jobs/details/19697/385</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at CAREERS@BEINEX.COM</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Python Solution Architect</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Excellent communication and interpersonal skills</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1564,144 +1328,112 @@
           <t>Not Available</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/16694/260</t>
+          <t>https://infopark.in/company-jobs/details/19968/85</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at CAREERS@BEINEX.COM</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Experience: 5+ years</t>
-        </is>
-      </c>
+          <t>AI/ML – Architect</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
-          <t>•	Experience working in an IT product-based or service-based company.</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>•	A minimum of 5+ years of experience in international sales, with a proven ability to manage and grow sales in global markets.</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Not Available</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/19513/164</t>
+          <t>https://infopark.in/company-jobs/details/19969/85</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at careers@worksent.com</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Software Support Engineer (WFH)</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Implementing and managing project budgets, ensuring financial control and reporting</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Excellent communication skills</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Not Available</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/17982/260</t>
+          <t>https://infopark.in/company-jobs/details/17930/70</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at careers@beinex.com</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Digital Marketing Executive</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
-          <t>We are looking for a highly skilled computer programmer who is comfortable with both front and back-end programming. Full stack developers are responsible for developing and designing front-end web architecture, ensuring the responsiveness of applications, and working alongside graphic designers for web design features, among other duties.</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Full Stack Developer Responsibilities:</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Not Available</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/18024/124</t>
+          <t>https://infopark.in/company-jobs/details/19728/412</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at hiring@airoglobalsoftware.com</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Only female candidates with relevant experience will be considered</t>
-        </is>
-      </c>
+          <t>Business Development Executive</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>Not Available</t>
@@ -1712,73 +1444,57 @@
           <t>Not Available</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/17026/410</t>
+          <t>https://infopark.in/company-jobs/details/19993/312</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at careers@valoriz.com</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Experience: 3+ Years</t>
-        </is>
-      </c>
+          <t>Content Writer</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Strong development experience in Python Django frameworks.</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Excellent team player, with emphasis on priorities and goal setting</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Not Available</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/16798/260</t>
+          <t>https://infopark.in/company-jobs/details/19994/312</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at CAREERS@BEINEX.COM</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Experience - 2 to 5 years</t>
-        </is>
-      </c>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Background in project management and research</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1786,36 +1502,28 @@
           <t>Not Available</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/16799/260</t>
+          <t>https://infopark.in/company-jobs/details/19995/312</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at CAREERS@BEINEX.COM</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Full Stack Engineer - JavaScript</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
-          <t>•Strong understanding of SEO, Google Ads, Meta (Facebook) Ads, Email Marketing, Content Marketing, Social Media Strategy, and Canva.</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1823,110 +1531,86 @@
           <t>Not Available</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>•Preferring candidates from Kerala</t>
-        </is>
-      </c>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/19898/471</t>
+          <t>https://infopark.in/company-jobs/details/19996/312</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at jobs@telious.com</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>AI Engineer</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
-          <t>•	Self-motivated, with excellent time management and organizational skills.</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>•	Basic understanding of programming concepts (e.g., familiarity with languages like React, Fluter, Python, Java, JavaScript ) is a plus.</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Not Available</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/19906/164</t>
+          <t>https://infopark.in/company-jobs/details/19997/312</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at careers@worksent.com</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Experience: 2+ Years</t>
-        </is>
-      </c>
+          <t>Videographer + Video editor</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Proficient in Data Structures &amp; Algorithms (DSA) and solving complex problems efficiently.</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>In-depth knowledge of RESTful APIs with seamless integration of third-party libraries and custom packages.</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Strong foundation in mobile app security, cross-platform development , testing strategies, and CI/CD pipeline implementation.</t>
-        </is>
-      </c>
+          <t>Not Available</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/16072/260</t>
+          <t>https://infopark.in/company-jobs/details/19999/332</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at CAREERS@BEINEX.COM</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Experience - 3+ years</t>
-        </is>
-      </c>
+          <t>Java Developer</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Background in project management and research</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1934,147 +1618,115 @@
           <t>Not Available</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/15859/260</t>
+          <t>https://infopark.in/company-jobs/details/17966/471</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at careers@beinex.com</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Business Analyst-Inter</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Skillsets: Vulnerability Assessment, API, Code, Web &amp; Cloud Security</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Remuneration: Salary ranges will be the best in the industry.</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Shift Time: Consultant / Part Time Freelancer</t>
-        </is>
-      </c>
+          <t>Not Available</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/19444/55</t>
+          <t>https://infopark.in/company-jobs/details/20019/495</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at careers@jtsiindia.com</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Mode: Work from Office</t>
-        </is>
-      </c>
+          <t>IT Business Analyst -  4+ Years</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
-          <t> Familiarity with MS Power point, Outlook, MS word and Excel.</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t> Take Ownership of the assigned tasks.</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>if performance is good.</t>
-        </is>
-      </c>
+          <t>Not Available</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/19960/4</t>
+          <t>https://infopark.in/company-jobs/details/19766/251</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at aswathi.asok@arttechgroup.com</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Mode: Work from Office</t>
-        </is>
-      </c>
+          <t>Java Team Lead - 5+ years of experience in Java, with at least 2+years of experience in lead role</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
-          <t> Familiarity with MS Power point, Outlook, MS word and Excel.</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t> Take Ownership of the assigned tasks.</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>if performance is good.</t>
-        </is>
-      </c>
+          <t>Not Available</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/19472/4</t>
+          <t>https://infopark.in/company-jobs/details/19767/251</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at jamshiya@arttechgroup.com</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Senior Java Developer - 4+ years</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
-          <t>We are hiring .NET / .NET Core Full Stack Developers to join our dynamic team at Infopark Thrissur. You will be responsible for developing, supporting, and maintaining critical applications. The ideal candidate is passionate about technology, detail-oriented, and committed to delivering high-quality software solutions.</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2082,292 +1734,228 @@
           <t>Not Available</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/20000/41</t>
+          <t>https://infopark.in/company-jobs/details/19768/251</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at career@lucidplus.com</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Junior Java Developer - 2+ Years</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2. Strong interest in technology and software solutions.</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>4. Strong negotiation and closing abilities.</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>2. Opportunity to work with a growing SaaS company and build your B2B sales career.</t>
-        </is>
-      </c>
+          <t>Not Available</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/20001/41</t>
+          <t>https://infopark.in/company-jobs/details/19769/251</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at career@lucidplus.com</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Lead Generation Specialist - IT Sales &amp; Marketing</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Greetings from JTSi Technologies India Pvt Ltd!</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Management</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Not Available</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/19264/55</t>
+          <t>https://infopark.in/company-jobs/details/19270/373</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at careers@jtsiindia.com</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Senior Database Developer</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Greetings from JTSi Technologies...!!!</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Remuneration: Salary ranges will be the best in the industry.</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Shift Time: 06.30 PM – 03.30 AM IST</t>
-        </is>
-      </c>
+          <t>Not Available</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/19266/55</t>
+          <t>https://infopark.in/company-jobs/details/19571/70</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at careers@jtsiindia.com</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>AI Product Manager</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Department: AI &amp; Data Science</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>•	4–7 years of experience in Python programming, with a focus on AI/ML systems.</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Not Available</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/19585/401</t>
+          <t>https://infopark.in/company-jobs/details/19588/68</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at joinus@pearlsofttechnologies.com</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Senior Software Engineer(Laravel &amp; JavaScript)</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Familiarity with Microsoft Identity Web and OAuth2.</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Ability to work collaboratively in a team environment.</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Not Available</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/19587/68</t>
+          <t>https://infopark.in/company-jobs/details/19589/68</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at careers@cubettech.com</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>AI &amp; ML Engineer</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Relevant Experience - 3+ years</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>CMS, SaaS</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Not Available</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/19593/103</t>
+          <t>https://infopark.in/company-jobs/details/19590/68</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at sandra.paul@experionglobal.com</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>PHP-Laravel Developer</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
-          <t>3-5 years</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>3-5 years of experience in software testing.</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Not Available</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/18858/190</t>
+          <t>https://infopark.in/company-jobs/details/18868/401</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at sharika.raj@innovaturelabs.com</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Digital Marketing Specialist</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
           <t>Not Available</t>
@@ -2378,218 +1966,170 @@
           <t>Not Available</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+      <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/19899/49</t>
+          <t>https://infopark.in/company-jobs/details/19898/471</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at r.reshma@thinkpalm.com</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>.Net Developer</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Place of Posting         	: Infopark, Kochi / Remote.</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Experience                  	: Minimum 7 to 10 Years</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Not Available</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/19133/55</t>
+          <t>https://infopark.in/company-jobs/details/19644/272</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at careers@jtsiindia.com</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Android Developer</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Knowledge Harvesting Specialist required for JTSi Technologies India Pvt Ltd Infopark, Kochi.</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Job Time	: 09.30 AM – 06.30 PM IST (Monday – Friday)</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Not Available</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/19680/55</t>
+          <t>https://infopark.in/company-jobs/details/19650/68</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at careers@jtsiindia.com</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Power BI Developer</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Strong frontend development skills using AngularJS (9).</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Experience with third-party API integrations, especially payment gateways (e.g., Razorpay, Stripe, PayPal).</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Collaborate with the DevOps and QA teams to support CI/CD and automated testing pipelines.</t>
-        </is>
-      </c>
+          <t>Not Available</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/19227/209</t>
+          <t>https://infopark.in/company-jobs/details/19651/68</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at dona.mariam@ndimensionz.com</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>•	Support internal and external audits by preparing reports and documentation.</t>
-        </is>
-      </c>
+          <t>Senior Digital Marketing Specialist</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
-          <t>•	IATA BSP Expertise: Strong knowledge of BSP processes, ticketing, and airline reconciliation.</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>•	Analytical Ability: Strong numerical, analytical, and problem-solving skills.</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>•	Verify BSP billing reports and resolve discrepancies with airlines and IATA.</t>
-        </is>
-      </c>
+          <t>Not Available</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/17736/265</t>
+          <t>https://infopark.in/company-jobs/details/19652/363</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at ta@verteil.com</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Fraud Analyst</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Proficient in tools like LinkedIn Sales Navigator, HubSpot/Salesforce, and Excel</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Self-motivated, detail-oriented, and goal-driven</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Not Available</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/19017/336</t>
+          <t>https://infopark.in/company-jobs/details/19655/4</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at lavanya@voxtronme.com</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>FLUTTER DEVELOPER</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>Not Available</t>
@@ -2600,93 +2140,73 @@
           <t>Not Available</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+      <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/19540/250</t>
+          <t>https://infopark.in/company-jobs/details/18136/373</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at careers@digiora.com</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>AI/ML – Team Lead</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
-          <t>•	1-4 years of progressive accounting experience is preferred (experience in real estate, hospitality or food &amp; beverage clients will be helpful but not mandatory).</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>•	Ability to apply advanced problem-solving skills to resolve complex issues and the capability to work with time-bound environments.</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>•	Apply and uphold internal accounting policies and control procedures.</t>
-        </is>
-      </c>
+          <t>Not Available</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/19558/216</t>
+          <t>https://infopark.in/company-jobs/details/19962/85</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at india.hr@redux.co</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Job Opportunities</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Company: TechTaliya Informatics Pvt. Ltd.</t>
-        </is>
-      </c>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
-          <t>You will work on real-world problems, assist in developing and deploying AI/ML models, and support the creation of intelligent solutions across various business domains. This role is ideal for someone eager to grow in a fast-paced environment focused on next-generation technologies.</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>•	Bachelor’s degree in Engineering (preferably BTech in AI/ML, IT, or related field) with a focus on Data Science, Analytics, or Statistics.</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
+          <t>Not Available</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>https://infopark.in/company-jobs/details/19820/282</t>
+          <t>https://infopark.in/company-jobs/details/19964/85</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>If this opportunity aligns with your career goals, kindly share your updated resume with us at hr@techtaliya.com</t>
+          <t>Not Available</t>
         </is>
       </c>
     </row>
